--- a/biology/Médecine/1145_en_santé_et_médecine/1145_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1145_en_santé_et_médecine/1145_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1145_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1145_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1145 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1145_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1145_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« La première bulle pontificale confirmant les biens et droits de l’hôtel-Dieu [du Puy], en 1145, évoque un établissement relativement récent au rayonnement limité[1] ».
-« Une bulle du pape Eugène III mentionne la présence d'un hospice dédié à Bernard au sommet du futur Petit-Saint-Bernard[2] ».
-Fondation par Guifredo da Buffero de l'hôpital S. Barnaba de Brorio à Milan en Italie, établissement qui sera réuni à l'hôpital S. Stefano alla ruota en 1157[3] ou 1158[4], pour former l'hôpital del Brolo (it).
-À Épernay, « Henry dit le Large, comte de Champagne, [...] fait bâtir un hôpital [...] destiné à recevoir les pauvres et les malades étrangers[5] ».
-Fondation à Gaywood (en), dans le comté de Norfolk, en Angleterre, d'un hôpital où, « du prieur et des douze frères et sœurs, dix dev[ro]nt être sains et trois, infirmes ou lépreux[6] ».
-Vers 1145 : fondation d'une léproserie à Ceton, sur le chemin de La Ferté-Bernard, entre Perche et Normandie, par les seigneurs du lieu[7].
-1121-1145 : construction de l'hôpital Saint-Paul (St. Paul's Hospital) à Norwich, capitale du comté du Norfolk en Angleterre[8].
-1142 ou 1145 : fondation de l'hôpital S. Giacomo de Folignano dans la région de Plaisance, en Italie[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« La première bulle pontificale confirmant les biens et droits de l’hôtel-Dieu [du Puy], en 1145, évoque un établissement relativement récent au rayonnement limité ».
+« Une bulle du pape Eugène III mentionne la présence d'un hospice dédié à Bernard au sommet du futur Petit-Saint-Bernard ».
+Fondation par Guifredo da Buffero de l'hôpital S. Barnaba de Brorio à Milan en Italie, établissement qui sera réuni à l'hôpital S. Stefano alla ruota en 1157 ou 1158, pour former l'hôpital del Brolo (it).
+À Épernay, « Henry dit le Large, comte de Champagne, [...] fait bâtir un hôpital [...] destiné à recevoir les pauvres et les malades étrangers ».
+Fondation à Gaywood (en), dans le comté de Norfolk, en Angleterre, d'un hôpital où, « du prieur et des douze frères et sœurs, dix dev[ro]nt être sains et trois, infirmes ou lépreux ».
+Vers 1145 : fondation d'une léproserie à Ceton, sur le chemin de La Ferté-Bernard, entre Perche et Normandie, par les seigneurs du lieu.
+1121-1145 : construction de l'hôpital Saint-Paul (St. Paul's Hospital) à Norwich, capitale du comté du Norfolk en Angleterre.
+1142 ou 1145 : fondation de l'hôpital S. Giacomo de Folignano dans la région de Plaisance, en Italie.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1145_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1145_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1145 : parution du Dragmaticon philosophiae, de Guillaume de Conches (v. 1080 – v. 1150), ouvrage qui traite de « l'organisation du cerveau en ventricules », avant d'exposer « différentes théories de la pensée[10] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1145 : parution du Dragmaticon philosophiae, de Guillaume de Conches (v. 1080 – v. 1150), ouvrage qui traite de « l'organisation du cerveau en ventricules », avant d'exposer « différentes théories de la pensée ».</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1145_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1145_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Guillaume, médecin, inscrit aux registres de la paroisse cathédrale Sainte-Croix d'Orléans[11]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Guillaume, médecin, inscrit aux registres de la paroisse cathédrale Sainte-Croix d'Orléans</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1145_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1145_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Entre 1145 et 1150 : Rigord (mort entre 1207 et 1209), moine de Saint-Denis, médecin et historien[12],[13].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Entre 1145 et 1150 : Rigord (mort entre 1207 et 1209), moine de Saint-Denis, médecin et historien,.</t>
         </is>
       </c>
     </row>
